--- a/Production/PCB/GCP-2_bom.xlsx
+++ b/Production/PCB/GCP-2_bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -43,15 +43,21 @@
     <t>Capacitor_Tantalum_SMD:CP_EIA-3216-18_Kemet-A</t>
   </si>
   <si>
-    <t>C2, C3</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>6.8uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
   <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
     <t>C4, C5, C7, C8, C9</t>
   </si>
   <si>
@@ -148,7 +154,7 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R4, R14</t>
   </si>
   <si>
     <t>10k</t>
@@ -202,13 +208,13 @@
     <t>U3</t>
   </si>
   <si>
-    <t>3.3v Fixed</t>
-  </si>
-  <si>
-    <t>hhl:HTSOP-J8</t>
-  </si>
-  <si>
-    <t>BD33HA5WEFJ</t>
+    <t>XC6222</t>
+  </si>
+  <si>
+    <t>hhl:SOT-89-5</t>
+  </si>
+  <si>
+    <t>XC6222B331PR-G</t>
   </si>
   <si>
     <t>Y1</t>
@@ -250,7 +256,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,14 +265,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,11 +276,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -290,7 +293,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -566,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -583,13 +586,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -597,16 +600,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -620,10 +623,10 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -637,30 +640,28 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -668,216 +669,218 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>27.0</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -888,13 +891,13 @@
         <v>43</v>
       </c>
       <c r="C16" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -905,13 +908,13 @@
         <v>45</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -928,7 +931,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -941,11 +944,11 @@
       <c r="C19" s="1">
         <v>2.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>330.0</v>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -953,99 +956,98 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1">
         <v>3.0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2">
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3">
         <v>5.0</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -1053,19 +1055,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -1073,19 +1075,39 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="C26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
